--- a/modules/mssql/xlsx/換狀證明範例.xlsx
+++ b/modules/mssql/xlsx/換狀證明範例.xlsx
@@ -63,52 +63,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +78,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,8 +145,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="新細明體"/>
       <charset val="0"/>
@@ -153,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,45 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -223,19 +223,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,61 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,92 +407,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -417,17 +417,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,39 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,167 +490,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,44 +1030,73 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.4666666666667" customWidth="1"/>
     <col min="2" max="2" width="32.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="266.45" customHeight="1"/>
-    <row r="2" ht="36.85" customHeight="1" spans="2:2">
-      <c r="B2" s="1" t="s">
+    <row r="1" ht="266.45" customHeight="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="36.85" customHeight="1"/>
-    <row r="4" ht="36.85" customHeight="1" spans="2:2">
-      <c r="B4" s="2">
+    <row r="3" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3">
         <v>44042</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="36.85" customHeight="1"/>
-    <row r="6" ht="36.85" customHeight="1" spans="2:2">
-      <c r="B6" s="3" t="s">
+    <row r="5" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="1"/>
     </row>
-    <row r="7" ht="36.85" customHeight="1"/>
-    <row r="8" ht="36.85" customHeight="1" spans="2:2">
-      <c r="B8" s="1" t="s">
+    <row r="7" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" ht="36.85" customHeight="1" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="1.25138888888889" right="0.700694444444445" top="0.196527777777778" bottom="0.751388888888889" header="0" footer="0.298611111111111"/>
+  <pageMargins left="1.25138888888889" right="0.700694444444445" top="0.196527777777778" bottom="0.751388888888889" header="0" footer="0.297916666666667"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
